--- a/Projektütemezés.xlsx
+++ b/Projektütemezés.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{04BF2E3E-5874-44DE-9F7E-DF3DEDDDCCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BEFF3C-CC18-4DC5-9900-054FDD3E711E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Válassza ki a kiemelendő időszakot a jobb oldalon.  A diagram jelmagyarázata következik.</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>13_S1_1_vizsgaremek</t>
+  </si>
+  <si>
+    <t>Első rész</t>
   </si>
 </sst>
 </file>
@@ -536,6 +539,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -577,12 +586,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -996,7 +999,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1012,7 +1015,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="13"/>
@@ -1036,65 +1039,65 @@
         <v>1</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="34"/>
       <c r="V2" s="17"/>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="36"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="22"/>
       <c r="Z2" s="18"/>
-      <c r="AA2" s="23" t="s">
+      <c r="AA2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="34"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="36"/>
       <c r="AH2" s="19"/>
-      <c r="AI2" s="23" t="s">
+      <c r="AI2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="31" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="20" t="s">
@@ -1121,12 +1124,12 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1259,7 +1262,7 @@
       <c r="BO4" s="3"/>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="7">
@@ -1275,9 +1278,15 @@
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>

--- a/Projektütemezés.xlsx
+++ b/Projektütemezés.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BEFF3C-CC18-4DC5-9900-054FDD3E711E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C18A65-54D6-48C9-A3AA-524AD383ACE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -999,7 +999,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1271,10 +1271,12 @@
       <c r="D5" s="7">
         <v>4</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Projektütemezés.xlsx
+++ b/Projektütemezés.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C18A65-54D6-48C9-A3AA-524AD383ACE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB90B7A-86BD-4505-A12F-CA5BF5D1AB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Válassza ki a kiemelendő időszakot a jobb oldalon.  A diagram jelmagyarázata következik.</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>TÉNYLEGES IDŐTARTAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kiemelt időszak:</t>
   </si>
   <si>
     <t>KÉSZÜLTSÉGI SZINT</t>
@@ -166,14 +163,53 @@
     <t>13_S1_1_vizsgaremek</t>
   </si>
   <si>
-    <t>Első rész</t>
+    <t>Adatbázis tervezés</t>
+  </si>
+  <si>
+    <t>Adatbázis létrehozás</t>
+  </si>
+  <si>
+    <t>Frontend tervezés</t>
+  </si>
+  <si>
+    <t>Adatbázis tesztelés</t>
+  </si>
+  <si>
+    <t>Frontend vizuális megjelenítésének megvalósítása</t>
+  </si>
+  <si>
+    <t>Szünet</t>
+  </si>
+  <si>
+    <t>Frontend funkciók beállítása</t>
+  </si>
+  <si>
+    <t>Fizetés működésének beállítása</t>
+  </si>
+  <si>
+    <t>Frontend tesztelés</t>
+  </si>
+  <si>
+    <t>Hardver beiktatása és tesztelése</t>
+  </si>
+  <si>
+    <t>Végső simítások elvégzése, hibák kijavítása</t>
+  </si>
+  <si>
+    <t>LEADÁS</t>
+  </si>
+  <si>
+    <t>Konzultáció és hibajavítás</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mérföldkövek:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -282,6 +318,31 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -326,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -411,6 +472,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -469,37 +580,19 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -539,30 +632,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -586,6 +664,84 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -999,491 +1155,631 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19" style="31" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="28" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="28" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="28" customWidth="1"/>
+    <col min="7" max="7" width="17" style="29" customWidth="1"/>
     <col min="8" max="27" width="3.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="23"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+    </row>
+    <row r="3" spans="2:67" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+    </row>
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2">
+        <v>5</v>
+      </c>
+      <c r="M4" s="2">
+        <v>6</v>
+      </c>
+      <c r="N4" s="2">
+        <v>7</v>
+      </c>
+      <c r="O4" s="2">
+        <v>8</v>
+      </c>
+      <c r="P4" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>10</v>
+      </c>
+      <c r="R4" s="2">
+        <v>11</v>
+      </c>
+      <c r="S4" s="2">
+        <v>12</v>
+      </c>
+      <c r="T4" s="2">
+        <v>13</v>
+      </c>
+      <c r="U4" s="2">
+        <v>14</v>
+      </c>
+      <c r="V4" s="2">
         <v>15</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="5" t="s">
+      <c r="W4" s="2">
+        <v>16</v>
+      </c>
+      <c r="X4" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>24</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>25</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>26</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>27</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>28</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>29</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>30</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>31</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>32</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>33</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>34</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2"/>
+    </row>
+    <row r="5" spans="2:67" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="40">
+        <v>1</v>
+      </c>
+      <c r="D5" s="40">
+        <v>4</v>
+      </c>
+      <c r="E5" s="40">
+        <v>1</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="33">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="40">
+        <v>5</v>
+      </c>
+      <c r="D6" s="40">
+        <v>1</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="2:67" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="40">
         <v>6</v>
       </c>
-      <c r="H2" s="14">
+      <c r="D7" s="40">
+        <v>4</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="40">
+        <v>10</v>
+      </c>
+      <c r="D8" s="40">
+        <v>3</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="2:67" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="41">
+        <v>13</v>
+      </c>
+      <c r="D9" s="41">
         <v>1</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="34"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-    </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
+    </row>
+    <row r="10" spans="2:67" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="40">
+        <v>14</v>
+      </c>
+      <c r="D10" s="40">
         <v>1</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="33"/>
+    </row>
+    <row r="11" spans="2:67" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="40">
+        <v>15</v>
+      </c>
+      <c r="D11" s="40">
+        <v>3</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="40">
+        <v>18</v>
+      </c>
+      <c r="D12" s="40">
         <v>2</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="29" t="s">
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="33"/>
+    </row>
+    <row r="13" spans="2:67" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="40">
+        <v>20</v>
+      </c>
+      <c r="D13" s="40">
+        <v>5</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" spans="2:67" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="40">
+        <v>25</v>
+      </c>
+      <c r="D14" s="40">
+        <v>2</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="43">
+        <v>27</v>
+      </c>
+      <c r="D15" s="40">
+        <v>2</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="33"/>
+    </row>
+    <row r="16" spans="2:67" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="40">
+        <v>29</v>
+      </c>
+      <c r="D16" s="40">
         <v>4</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-    </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="3">
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="33"/>
+    </row>
+    <row r="17" spans="2:41" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="40">
+        <v>33</v>
+      </c>
+      <c r="D17" s="40">
+        <v>2</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="33"/>
+      <c r="S17" s="48"/>
+    </row>
+    <row r="18" spans="2:41" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="51">
+        <v>35</v>
+      </c>
+      <c r="D18" s="51">
         <v>1</v>
       </c>
-      <c r="I4" s="3">
-        <v>2</v>
-      </c>
-      <c r="J4" s="3">
-        <v>3</v>
-      </c>
-      <c r="K4" s="3">
-        <v>4</v>
-      </c>
-      <c r="L4" s="3">
-        <v>5</v>
-      </c>
-      <c r="M4" s="3">
-        <v>6</v>
-      </c>
-      <c r="N4" s="3">
-        <v>7</v>
-      </c>
-      <c r="O4" s="3">
-        <v>8</v>
-      </c>
-      <c r="P4" s="3">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>10</v>
-      </c>
-      <c r="R4" s="3">
-        <v>11</v>
-      </c>
-      <c r="S4" s="3">
-        <v>12</v>
-      </c>
-      <c r="T4" s="3">
-        <v>13</v>
-      </c>
-      <c r="U4" s="3">
-        <v>14</v>
-      </c>
-      <c r="V4" s="3">
-        <v>15</v>
-      </c>
-      <c r="W4" s="3">
-        <v>16</v>
-      </c>
-      <c r="X4" s="3">
-        <v>17</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>18</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>19</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>20</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>21</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>22</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>23</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>24</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>25</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>26</v>
-      </c>
-      <c r="AH4" s="3">
-        <v>27</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>28</v>
-      </c>
-      <c r="AJ4" s="3">
-        <v>29</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>30</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>31</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>32</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>33</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>34</v>
-      </c>
-      <c r="AP4" s="3">
-        <v>35</v>
-      </c>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="3"/>
-      <c r="BE4" s="3"/>
-      <c r="BF4" s="3"/>
-      <c r="BG4" s="3"/>
-      <c r="BH4" s="3"/>
-      <c r="BI4" s="3"/>
-      <c r="BJ4" s="3"/>
-      <c r="BK4" s="3"/>
-      <c r="BL4" s="3"/>
-      <c r="BM4" s="3"/>
-      <c r="BN4" s="3"/>
-      <c r="BO4" s="3"/>
-    </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7">
-        <v>5</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="47"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="47"/>
+      <c r="AJ18" s="47"/>
+      <c r="AK18" s="47"/>
+      <c r="AL18" s="47"/>
+      <c r="AM18" s="47"/>
+      <c r="AN18" s="47"/>
+      <c r="AO18" s="47"/>
+    </row>
+    <row r="19" spans="2:41" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="49"/>
+      <c r="AG19" s="49"/>
+      <c r="AH19" s="49"/>
+      <c r="AI19" s="49"/>
+      <c r="AJ19" s="49"/>
+      <c r="AK19" s="49"/>
+      <c r="AL19" s="49"/>
+      <c r="AM19" s="49"/>
+      <c r="AN19" s="49"/>
+      <c r="AO19" s="49"/>
+    </row>
+    <row r="20" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="30"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="45"/>
+    </row>
+    <row r="21" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="30"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="45"/>
+    </row>
+    <row r="22" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="30"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="45"/>
+    </row>
+    <row r="23" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="30"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="45"/>
+    </row>
+    <row r="24" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="30"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="45"/>
+    </row>
+    <row r="25" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="30"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="45"/>
+    </row>
+    <row r="26" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="30"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="45"/>
+    </row>
+    <row r="27" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="30"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="45"/>
+    </row>
+    <row r="28" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="30"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="45"/>
+    </row>
+    <row r="29" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="30"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="45"/>
+    </row>
+    <row r="30" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="30"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Projektütemezés.xlsx
+++ b/Projektütemezés.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB90B7A-86BD-4505-A12F-CA5BF5D1AB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B38388-60A0-42CE-AF38-21A7C1449A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,9 +184,6 @@
     <t>Frontend funkciók beállítása</t>
   </si>
   <si>
-    <t>Fizetés működésének beállítása</t>
-  </si>
-  <si>
     <t>Frontend tesztelés</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Mérföldkövek:</t>
+  </si>
+  <si>
+    <t>Rendelés működésének beállítása</t>
   </si>
 </sst>
 </file>
@@ -632,15 +632,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -664,84 +742,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1154,24 +1154,24 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="19" style="31" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="28" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="28" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="28" customWidth="1"/>
-    <col min="7" max="7" width="17" style="29" customWidth="1"/>
+    <col min="2" max="2" width="19" style="20" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="17" customWidth="1"/>
+    <col min="7" max="7" width="17" style="18" customWidth="1"/>
     <col min="8" max="27" width="3.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="7"/>
@@ -1181,7 +1181,7 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="15"/>
@@ -1189,71 +1189,71 @@
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="8">
         <v>1</v>
       </c>
       <c r="J2" s="9"/>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="23"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="49"/>
       <c r="V2" s="11"/>
-      <c r="W2" s="26" t="s">
+      <c r="W2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="27"/>
+      <c r="X2" s="53"/>
       <c r="Y2" s="16"/>
       <c r="Z2" s="12"/>
-      <c r="AA2" s="17" t="s">
+      <c r="AA2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="25"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="51"/>
       <c r="AH2" s="13"/>
-      <c r="AI2" s="17" t="s">
+      <c r="AI2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
     </row>
     <row r="3" spans="2:67" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="14" t="s">
@@ -1280,12 +1280,12 @@
       <c r="AA3" s="5"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="2">
         <v>1</v>
       </c>
@@ -1418,368 +1418,368 @@
       <c r="BO4" s="2"/>
     </row>
     <row r="5" spans="2:67" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="27">
         <v>1</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="27">
         <v>4</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="27">
         <v>1</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="33">
+      <c r="F5" s="27"/>
+      <c r="G5" s="21">
         <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="27">
         <v>5</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="27">
         <v>1</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="33"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="2:67" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="27">
         <v>6</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="27">
         <v>4</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="33"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="27">
         <v>10</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="27">
         <v>3</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="33"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="2:67" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="28">
+        <v>13</v>
+      </c>
+      <c r="D9" s="28">
+        <v>1</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="2:67" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="27">
+        <v>14</v>
+      </c>
+      <c r="D10" s="27">
+        <v>1</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="2:67" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="27">
+        <v>15</v>
+      </c>
+      <c r="D11" s="27">
+        <v>3</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="27">
+        <v>18</v>
+      </c>
+      <c r="D12" s="27">
+        <v>2</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="2:67" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="27">
+        <v>20</v>
+      </c>
+      <c r="D13" s="27">
+        <v>5</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="2:67" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="27">
+        <v>25</v>
+      </c>
+      <c r="D14" s="27">
+        <v>2</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="30">
         <v>27</v>
       </c>
-      <c r="C9" s="41">
-        <v>13</v>
-      </c>
-      <c r="D9" s="41">
+      <c r="D15" s="27">
+        <v>2</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="2:67" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="27">
+        <v>29</v>
+      </c>
+      <c r="D16" s="27">
+        <v>4</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="2:41" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="27">
+        <v>33</v>
+      </c>
+      <c r="D17" s="27">
+        <v>2</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="21"/>
+      <c r="S17" s="35"/>
+    </row>
+    <row r="18" spans="2:41" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="38">
+        <v>35</v>
+      </c>
+      <c r="D18" s="38">
         <v>1</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
-    </row>
-    <row r="10" spans="2:67" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="40">
-        <v>14</v>
-      </c>
-      <c r="D10" s="40">
-        <v>1</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" spans="2:67" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="40">
-        <v>15</v>
-      </c>
-      <c r="D11" s="40">
-        <v>3</v>
-      </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="40">
-        <v>18</v>
-      </c>
-      <c r="D12" s="40">
-        <v>2</v>
-      </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="33"/>
-    </row>
-    <row r="13" spans="2:67" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="40">
-        <v>20</v>
-      </c>
-      <c r="D13" s="40">
-        <v>5</v>
-      </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" spans="2:67" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="40">
-        <v>25</v>
-      </c>
-      <c r="D14" s="40">
-        <v>2</v>
-      </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="33"/>
-    </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="43">
-        <v>27</v>
-      </c>
-      <c r="D15" s="40">
-        <v>2</v>
-      </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="33"/>
-    </row>
-    <row r="16" spans="2:67" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="40">
-        <v>29</v>
-      </c>
-      <c r="D16" s="40">
-        <v>4</v>
-      </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="2:41" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="40">
-        <v>33</v>
-      </c>
-      <c r="D17" s="40">
-        <v>2</v>
-      </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="33"/>
-      <c r="S17" s="48"/>
-    </row>
-    <row r="18" spans="2:41" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="51">
-        <v>35</v>
-      </c>
-      <c r="D18" s="51">
-        <v>1</v>
-      </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="47"/>
-      <c r="AL18" s="47"/>
-      <c r="AM18" s="47"/>
-      <c r="AN18" s="47"/>
-      <c r="AO18" s="47"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="34"/>
+      <c r="AO18" s="34"/>
     </row>
     <row r="19" spans="2:41" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="49"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="49"/>
-      <c r="AF19" s="49"/>
-      <c r="AG19" s="49"/>
-      <c r="AH19" s="49"/>
-      <c r="AI19" s="49"/>
-      <c r="AJ19" s="49"/>
-      <c r="AK19" s="49"/>
-      <c r="AL19" s="49"/>
-      <c r="AM19" s="49"/>
-      <c r="AN19" s="49"/>
-      <c r="AO19" s="49"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="36"/>
     </row>
     <row r="20" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="45"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="45"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="45"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="32"/>
     </row>
     <row r="23" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="30"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="45"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="32"/>
     </row>
     <row r="24" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="30"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="45"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="30"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="45"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="30"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="45"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="45"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="30"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="45"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="30"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="45"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="32"/>
     </row>
     <row r="30" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="30"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="45"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Projektütemezés.xlsx
+++ b/Projektütemezés.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B38388-60A0-42CE-AF38-21A7C1449A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A216FF-C01A-4389-8964-23FAF6C6A81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1154,8 +1154,8 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1430,9 +1430,11 @@
       <c r="E5" s="27">
         <v>1</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="27">
+        <v>3</v>
+      </c>
       <c r="G5" s="21">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1445,9 +1447,15 @@
       <c r="D6" s="27">
         <v>1</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="21"/>
+      <c r="E6" s="27">
+        <v>1</v>
+      </c>
+      <c r="F6" s="27">
+        <v>2</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="7" spans="2:67" ht="34.5" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">

--- a/Projektütemezés.xlsx
+++ b/Projektütemezés.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A216FF-C01A-4389-8964-23FAF6C6A81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A55998-303D-4EE8-9F2B-76EBA815AC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1155,7 +1155,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1431,10 +1431,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" s="21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1454,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="21">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="34.5" x14ac:dyDescent="0.25">
